--- a/test-analysis/hackathon-netcompany-auth-test-analysis-template_2023_12_20.xlsx
+++ b/test-analysis/hackathon-netcompany-auth-test-analysis-template_2023_12_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/cpapado_netcompany_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{E50EEF41-8DF8-4E20-AB0E-1E230EED65DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B15CB03-59D6-4E41-BFEC-1A3646BD91E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8041143-B28D-4985-BE6B-307D83544688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="78">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -93,18 +93,209 @@
   </si>
   <si>
     <t>Additional comments</t>
+  </si>
+  <si>
+    <t>US2 : Complete Order for the products in the cart</t>
+  </si>
+  <si>
+    <t>Successfully Complete and Send Order</t>
+  </si>
+  <si>
+    <t>GIVEN I am in a CheckoutPage</t>
+  </si>
+  <si>
+    <t>AND I have products in my cart</t>
+  </si>
+  <si>
+    <t>WHEN I click 'Place Order'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN I select country </t>
+  </si>
+  <si>
+    <t>AND I click 'Agree to the terms and conditions'</t>
+  </si>
+  <si>
+    <t>AND I click 'Proceed'</t>
+  </si>
+  <si>
+    <t>THEN I should redirected to another page with thank you message for several minutes</t>
+  </si>
+  <si>
+    <t>US1 : Add products in the cart</t>
+  </si>
+  <si>
+    <t>Successfully add one product to cart</t>
+  </si>
+  <si>
+    <t>Add 1 strawberry to cart  and check if price is correct</t>
+  </si>
+  <si>
+    <t>GIVEN I am in a Home Page</t>
+  </si>
+  <si>
+    <t>AND I have internet connection</t>
+  </si>
+  <si>
+    <t>WHEN I click 'Add to cart' (for strawberry product)</t>
+  </si>
+  <si>
+    <t>THEN I should see a message "ADDED"</t>
+  </si>
+  <si>
+    <t>WHEN I click on the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEN I should see the appropriate product(strawberry) </t>
+  </si>
+  <si>
+    <t>AND I should see the price according to quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US1 : Add products in the cart </t>
+  </si>
+  <si>
+    <t>Add negative quantity of product to cart</t>
+  </si>
+  <si>
+    <t>Add -1 strawberry to cart  and check if price is correct</t>
+  </si>
+  <si>
+    <t>WHEN I click 'Add to cart' (for -1 strawberry product)</t>
+  </si>
+  <si>
+    <t>THEN I should see a pop up message "Negative quantity. Please add positive quantity of product"</t>
+  </si>
+  <si>
+    <t>AND the cart should not be updated</t>
+  </si>
+  <si>
+    <t>Negative amount of product is successfully added</t>
+  </si>
+  <si>
+    <t>3 (MAJOR)</t>
+  </si>
+  <si>
+    <t>And negative amount of price (practically getting money)</t>
+  </si>
+  <si>
+    <t>Add null strawberry to cart  and check if price is correct</t>
+  </si>
+  <si>
+    <t>Add null quantity of product</t>
+  </si>
+  <si>
+    <t>WHEN I click 'Add to cart' (for null quantityof product)</t>
+  </si>
+  <si>
+    <t>THEN I should see a pop up message "No quantity added. Please add positive quantity of product"</t>
+  </si>
+  <si>
+    <t>No amount of product is successfully added</t>
+  </si>
+  <si>
+    <t>2(minor)</t>
+  </si>
+  <si>
+    <t>Null amount of product is successfully added</t>
+  </si>
+  <si>
+    <t>And customer gets charged for NaN amount of product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEN I should be redirected to another page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No Country selected</t>
+  </si>
+  <si>
+    <t>User didn't select country</t>
+  </si>
+  <si>
+    <t>No products added</t>
+  </si>
+  <si>
+    <t>AND I don't have products in my cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN I don't select country </t>
+  </si>
+  <si>
+    <t>AND I agree to terms</t>
+  </si>
+  <si>
+    <t>THEN I should see message 'please select country'</t>
+  </si>
+  <si>
+    <t>No country selected</t>
+  </si>
+  <si>
+    <t>4 (minor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even though I don’t select country I can proceed to checkout </t>
+  </si>
+  <si>
+    <t>GIVEN I am in a HomePage</t>
+  </si>
+  <si>
+    <t>WHEN I click the cart</t>
+  </si>
+  <si>
+    <t>AND I click procced to checkout</t>
+  </si>
+  <si>
+    <t>THEN I should not be redirected to checkout Page</t>
+  </si>
+  <si>
+    <t>Proceed to checkout with no products at all</t>
+  </si>
+  <si>
+    <t>5 (Trivial)</t>
+  </si>
+  <si>
+    <t>Even though I have no products in cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can proceed to checkout </t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US3 : Search for products </t>
+  </si>
+  <si>
+    <t>US4 : Top Deals</t>
+  </si>
+  <si>
+    <t>US5 : Use promo codes/coupons for an order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,67 +444,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,9 +559,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -369,7 +599,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -475,7 +705,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -617,7 +847,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,94 +857,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5E904-0AC9-4BED-A871-AC80F7C33B3B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="26" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>45282</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33">
+        <v>45282</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33">
+        <v>45282</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33">
+        <v>45282</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33">
+        <v>45282</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33">
+        <v>45282</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -729,366 +1007,543 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC192840-8274-4346-A7E9-BBD1EE7DFCBA}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="88.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="21">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="E3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="E11" s="7" t="s">
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="7" t="s">
+      <c r="F15" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="7" t="s">
+      <c r="B17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A14" s="7" t="s">
+      <c r="F17" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="E14" s="7" t="s">
+      <c r="B18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A15" s="7" t="s">
+      <c r="F18" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
-    <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="28">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="E21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="28">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A23" s="28">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="E22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="9"/>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
+    <row r="28" spans="1:6" ht="12" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="21">
+        <v>3</v>
+      </c>
+      <c r="C28" s="22"/>
       <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="E29" s="7" t="s">
+      <c r="F28" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="E29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="E30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="7" t="s">
+      <c r="F29" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
+      <c r="A30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="E30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25">
         <v>3</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="E31" s="7" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
+      <c r="A31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="E31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="7" t="s">
+      <c r="F31" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1">
+      <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="E32" s="7" t="s">
+      <c r="B32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="E32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="7" t="s">
+      <c r="F32" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" ht="28.2" thickBot="1">
+      <c r="A36" s="6">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="A37" s="25">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1"/>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1">
+      <c r="A41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
+      <c r="A42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="E42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1">
+      <c r="A43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="E44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1">
+      <c r="A45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+  <mergeCells count="19">
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1097,50 +1552,1793 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242611B2-332F-4034-BDFB-455B2DC6F743}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A22" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21">
+        <v>4</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="25">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
+    <row r="30" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="21">
+        <v>6</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
+      <c r="A31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="E32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1">
+      <c r="A43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="E44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1">
+      <c r="A45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1">
+      <c r="A46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="E46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1">
+      <c r="A47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9036B47-914A-4ECB-AF8A-378182E28BCD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="25">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
+    <row r="24" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="E26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1"/>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="E35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="E37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7159C9EE-4C44-4F68-9CCE-BE3D1E7D4F82}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="25">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
+    <row r="24" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="E26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1"/>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="E35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="E37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43583770-20CD-40BC-B90F-8152E742C6FB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="25">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="25">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="25">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="E17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
+    <row r="24" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="E26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1"/>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="E35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="E37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1153,7 +3351,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
